--- a/biology/Médecine/Ostéodensitométrie/Ostéodensitométrie.xlsx
+++ b/biology/Médecine/Ostéodensitométrie/Ostéodensitométrie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ost%C3%A9odensitom%C3%A9trie</t>
+          <t>Ostéodensitométrie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ostéodensitométrie, ou absorptiométrie biphotonique à rayons X, ou densitométrie minérale osseuse, (DMO), est une imagerie médicale qui mesure la densité de l'os, son contenu minéral. Cet examen médical est réalisé pour mesurer la densité minérale osseuse surfacique (exprimée en g/cm2) et non une densité volumétrique.
 La densité minérale osseuse augmente jusqu'à 20-30 ans, puis reste constante jusqu'à 40 ans, pour diminuer ensuite progressivement. Ce phénomène intéresse les deux sexes, mais l'augmentation de densité osseuse est plus importante chez l'homme.
-Ses indications sont limitées, la mesure de la DMO n'est utile que chez les personnes présentant des facteurs de risque d’ostéoporose, dont dépendent ces indications[1].
+Ses indications sont limitées, la mesure de la DMO n'est utile que chez les personnes présentant des facteurs de risque d’ostéoporose, dont dépendent ces indications.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ost%C3%A9odensitom%C3%A9trie</t>
+          <t>Ostéodensitométrie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Technique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La méthode de référence pour apprécier la qualité de l'os est aujourd'hui l'absorptiométrie biphotonique à rayons X.
 Il s'agit de mesurer l'atténuation de deux faisceaux de rayon X d'énergie différente à travers les tissus (mous et durs : organes et os). Une fois l'atténuation connue, on peut résoudre un système à deux équations et deux inconnues, en utilisant l'équation de l'atténuation (loi de Beer-Lambert et de CHOLLIER) :
@@ -546,7 +560,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ost%C3%A9odensitom%C3%A9trie</t>
+          <t>Ostéodensitométrie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -564,10 +578,12 @@
           <t>Sites de mesure</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'après les recommandations de l'ANAES, l'évaluation indirecte de la densité osseuse doit être réalisée au niveau de deux sites de mesure : le rachis lombaire et l'extrémité supérieure du fémur[2]. Dans certains cas l'interprétation ou la mesure au niveau de ces deux sites est impossible, on peut alors réaliser une mesure du radius : sujet atteint d'une maladie rachidienne (arthrose), sujets obèses, ou chez qui il existe du matériel orthopédique au niveau de la colonne vertébrale ou des hanches.
-La mesure de la densité osseuse à privilégier chez les femmes les plus âgées est celle de l’extrémité supérieure du fémur, la densité du rachis pouvant être ininterprétable du fait de son augmentation artéfactuelle par l’arthrose[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après les recommandations de l'ANAES, l'évaluation indirecte de la densité osseuse doit être réalisée au niveau de deux sites de mesure : le rachis lombaire et l'extrémité supérieure du fémur. Dans certains cas l'interprétation ou la mesure au niveau de ces deux sites est impossible, on peut alors réaliser une mesure du radius : sujet atteint d'une maladie rachidienne (arthrose), sujets obèses, ou chez qui il existe du matériel orthopédique au niveau de la colonne vertébrale ou des hanches.
+La mesure de la densité osseuse à privilégier chez les femmes les plus âgées est celle de l’extrémité supérieure du fémur, la densité du rachis pouvant être ininterprétable du fait de son augmentation artéfactuelle par l’arthrose.
 </t>
         </is>
       </c>
@@ -578,7 +594,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ost%C3%A9odensitom%C3%A9trie</t>
+          <t>Ostéodensitométrie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -596,7 +612,9 @@
           <t>Indications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez la femme ménopausée, il est recommandé devant :
 découverte d'une fracture vertébrale sans caractère traumatique ou tumoral évident ;
@@ -620,7 +638,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ost%C3%A9odensitom%C3%A9trie</t>
+          <t>Ostéodensitométrie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -640,10 +658,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Exactitude
-Elle s’exprime par rapport à une valeur de référence théorique et permet de comparer les résultats obtenus avec des appareillages différents. Compte tenu de la difficulté d’apprécier ce critère, il est recommandé d’utiliser le même type d’appareil pour suivre un patient.
-Reproductibilité
-L’incertitude est représentée par l’écart-type calculé à partir d’un certain nombre de mesures successives effectuées avec le même appareil. Le coefficient de variation des mesures in vivo est généralement de 1 à 2 %, meilleur au niveau lombaire qu’au niveau de l’extrémité supérieure du fémur.
+          <t>Exactitude</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle s’exprime par rapport à une valeur de référence théorique et permet de comparer les résultats obtenus avec des appareillages différents. Compte tenu de la difficulté d’apprécier ce critère, il est recommandé d’utiliser le même type d’appareil pour suivre un patient.
 </t>
         </is>
       </c>
@@ -654,7 +675,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ost%C3%A9odensitom%C3%A9trie</t>
+          <t>Ostéodensitométrie</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -669,12 +690,18 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Irradiation</t>
+          <t>Fiabilité de mesure</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'irradiation est très faible, vingt fois moindre que pour une radiographie pulmonaire. La dose efficace se situe entre 0,5 et 4 microsieverts (µSv). Cependant, cet examen est contre-indiqué pendant la grossesse.
+          <t>Reproductibilité</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’incertitude est représentée par l’écart-type calculé à partir d’un certain nombre de mesures successives effectuées avec le même appareil. Le coefficient de variation des mesures in vivo est généralement de 1 à 2 %, meilleur au niveau lombaire qu’au niveau de l’extrémité supérieure du fémur.
 </t>
         </is>
       </c>
@@ -685,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ost%C3%A9odensitom%C3%A9trie</t>
+          <t>Ostéodensitométrie</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -700,14 +727,49 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Irradiation</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'irradiation est très faible, vingt fois moindre que pour une radiographie pulmonaire. La dose efficace se situe entre 0,5 et 4 microsieverts (µSv). Cependant, cet examen est contre-indiqué pendant la grossesse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ostéodensitométrie</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ost%C3%A9odensitom%C3%A9trie</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Le patient et les résultats</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet examen est réalisé dans un centre de radiologie, de rhumatologie ou de médecine nucléaire disposant de l'appareillage nécessaire. La densitométrie est réalisée sans injection et sans prélèvement. Il n'est pas nécessaire d'être à jeun.
 L’existence de certaines maladies, en particulier du squelette, ou d'interventions orthopédiques, peut perturber l’examen : maladie osseuse de Paget, arthrose lombaire, scolioses importantes, calcifications aortiques, arthrodèses, prothèses…
-Une fois calculée, la densité osseuse (DMO) est comparée à celle d’une population d’adultes âgés de 30 à 40 ans[4]. La différence entre la mesure réalisée chez un individu et la moyenne dans cette population de référence est ce qu’on appelle le T-score, valeur exprimée en nombre d’écarts-types. C’est à partir de ce nombre qu'a été définie l’ostéoporose, selon les grades suivants :
+Une fois calculée, la densité osseuse (DMO) est comparée à celle d’une population d’adultes âgés de 30 à 40 ans. La différence entre la mesure réalisée chez un individu et la moyenne dans cette population de référence est ce qu’on appelle le T-score, valeur exprimée en nombre d’écarts-types. C’est à partir de ce nombre qu'a été définie l’ostéoporose, selon les grades suivants :
 normal : T-score &gt; -1, c'est-à-dire que la densité osseuse mesurée est supérieure à la moyenne des densités osseuses de référence moins un écart-type ;
 ostéopénie : -2.5 &lt; T-score &lt; -1, c'est-à-dire que la densité osseuse mesurée est située entre la moyenne de référence moins un écart-type et la moyenne moins 2,5 écarts-types ;
 ostéoporose : T-score &lt; -2.5, c'est-à-dire que la densité osseuse mesurée est inférieure ou égale à la moyenne de référence moins 2,5 écarts-types ;
@@ -718,35 +780,40 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Ost%C3%A9odensitom%C3%A9trie</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Ostéodensitométrie</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ost%C3%A9odensitom%C3%A9trie</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Informations</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>En France
-Annuellement, cent trente mille fractures sont provoquées par l'ostéoporose[réf. nécessaire]. En cas d'ostéoporose révélée par ostéodensitométrie chez les femmes de 50 ans, la probabilité d'avoir une fracture par traumatisme léger avant 60 ans est d'environ 45 %. Cependant la majorité des fractures (95 %) survenant entre 50 et 60 ans touchent des femmes dont l'ostéodensitométrie n'a pas révélé d'ostéoporose[5].
-Depuis le 1er juillet 2006[6], cet examen est pris en charge à 70 % par l'assurance maladie sur la base de 39,96 € en fonction de certains critères :
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Annuellement, cent trente mille fractures sont provoquées par l'ostéoporose[réf. nécessaire]. En cas d'ostéoporose révélée par ostéodensitométrie chez les femmes de 50 ans, la probabilité d'avoir une fracture par traumatisme léger avant 60 ans est d'environ 45 %. Cependant la majorité des fractures (95 %) survenant entre 50 et 60 ans touchent des femmes dont l'ostéodensitométrie n'a pas révélé d'ostéoporose.
+Depuis le 1er juillet 2006, cet examen est pris en charge à 70 % par l'assurance maladie sur la base de 39,96 € en fonction de certains critères :
 pour un premier examen :
 pour tous : prise de corticoïdes depuis au moins trois mois, antécédent de maladie ou de traitement pourvoyeurs d'ostéoporose, antécédents de fracture sans traumatisme,
 pour les femmes ménopausées : antécédent de fracture du col du fémur sans traumatisme chez un parent du premier degré, ménopause précoce (avant 40 ans), indice de masse corporelle (IMC) inférieur à 19 ou prise de corticoïdes pendant au moins trois mois ;
